--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>aish@1234$$$</t>
+  </si>
+  <si>
+    <t>khaja</t>
+  </si>
+  <si>
+    <t>hussain</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>kjunh</t>
+  </si>
+  <si>
+    <t>mkjnh</t>
   </si>
 </sst>
 </file>
@@ -412,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +474,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -433,7 +434,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -466,8 +466,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -475,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -483,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -491,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
